--- a/GUI + Reviews/202512/Review 202512/Dataiku/FCLSP_EMS_2025-12-11_2025-12-11-23-03-22.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/FCLSP_EMS_2025-12-11_2025-12-11-23-03-22.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_25F0F7B1DA1AA2DDE27636753E95CA95DD1749AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72E4D3F-B7E4-41ED-BDE8-05565CE84F92}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -426,8 +445,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,13 +509,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +561,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -568,6 +595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -602,9 +630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,14 +806,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -836,7 +870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -850,7 +884,7 @@
         <v>262769869</v>
       </c>
       <c r="E3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -862,7 +896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -879,7 +913,7 @@
         <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.9978937230434</v>
+        <v>0.99789372304339996</v>
       </c>
       <c r="G4" t="s">
         <v>131</v>
@@ -888,7 +922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -902,7 +936,7 @@
         <v>35343326</v>
       </c>
       <c r="E5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -914,7 +948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -940,7 +974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -954,7 +988,7 @@
         <v>73184570</v>
       </c>
       <c r="E7">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -966,7 +1000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1014,7 @@
         <v>19412501</v>
       </c>
       <c r="E8">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -992,7 +1026,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1040,7 @@
         <v>2123594281</v>
       </c>
       <c r="E9">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1018,7 +1052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1104,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>171347471</v>
       </c>
       <c r="E14">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1148,7 +1182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1234,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1278,7 +1312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1304,7 +1338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1318,7 +1352,7 @@
         <v>197089340</v>
       </c>
       <c r="E21">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1330,7 +1364,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1434,7 +1468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1460,7 +1494,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1526,7 +1560,7 @@
         <v>43744779</v>
       </c>
       <c r="E29">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1538,7 +1572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1642,7 +1676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1694,7 +1728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1754,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1780,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1760,7 +1794,7 @@
         <v>55337770</v>
       </c>
       <c r="E38">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1772,7 +1806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1798,7 +1832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1893,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.83037598846358</v>
+        <v>0.83037598846357996</v>
       </c>
       <c r="G43" t="s">
         <v>131</v>
@@ -1902,7 +1936,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1916,7 +1950,7 @@
         <v>179363695</v>
       </c>
       <c r="E44">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1928,7 +1962,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1954,7 +1988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1968,7 +2002,7 @@
         <v>147454887</v>
       </c>
       <c r="E46">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1980,7 +2014,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1994,7 +2028,7 @@
         <v>35772015</v>
       </c>
       <c r="E47">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2006,7 +2040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2032,7 +2066,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>20547701</v>
       </c>
       <c r="E49">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2058,7 +2092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2084,7 +2118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2098,7 +2132,7 @@
         <v>2896073567</v>
       </c>
       <c r="E51">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2110,7 +2144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2124,7 +2158,7 @@
         <v>911281920</v>
       </c>
       <c r="E52">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2136,7 +2170,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2188,7 +2222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2202,7 +2236,7 @@
         <v>143244727</v>
       </c>
       <c r="E55">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2214,7 +2248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2240,7 +2274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2254,7 +2288,7 @@
         <v>741723437</v>
       </c>
       <c r="E57">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2266,7 +2300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2332,7 +2366,7 @@
         <v>1029918125</v>
       </c>
       <c r="E60">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2344,7 +2378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2358,7 +2392,7 @@
         <v>283571633</v>
       </c>
       <c r="E61">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2372,18 +2406,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2394,7 +2432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2407,18 +2445,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2442,5 +2483,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/FCLSP_EMS_2025-12-11_2025-12-11-23-03-22.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/FCLSP_EMS_2025-12-11_2025-12-11-23-03-22.xlsx
@@ -1,36 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_25F0F7B1DA1AA2DDE27636753E95CA95DD1749AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72E4D3F-B7E4-41ED-BDE8-05565CE84F92}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -445,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,21 +490,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,7 +534,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -595,7 +568,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -630,10 +602,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -806,19 +777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -870,7 +836,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -884,7 +850,7 @@
         <v>262769869</v>
       </c>
       <c r="E3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -896,7 +862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -913,7 +879,7 @@
         <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.99789372304339996</v>
+        <v>0.9978937230434</v>
       </c>
       <c r="G4" t="s">
         <v>131</v>
@@ -922,7 +888,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -936,7 +902,7 @@
         <v>35343326</v>
       </c>
       <c r="E5">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -948,7 +914,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -974,7 +940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -988,7 +954,7 @@
         <v>73184570</v>
       </c>
       <c r="E7">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1000,7 +966,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +980,7 @@
         <v>19412501</v>
       </c>
       <c r="E8">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1026,7 +992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1006,7 @@
         <v>2123594281</v>
       </c>
       <c r="E9">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1052,7 +1018,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1078,7 +1044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1096,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1122,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1136,7 @@
         <v>171347471</v>
       </c>
       <c r="E14">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1182,7 +1148,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1174,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1260,7 +1226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1286,7 +1252,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1338,7 +1304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1318,7 @@
         <v>197089340</v>
       </c>
       <c r="E21">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1364,7 +1330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +1434,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1546,7 +1512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1526,7 @@
         <v>43744779</v>
       </c>
       <c r="E29">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1572,7 +1538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1676,7 +1642,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1702,7 +1668,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1694,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1754,7 +1720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1780,7 +1746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1760,7 @@
         <v>55337770</v>
       </c>
       <c r="E38">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1806,7 +1772,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1832,7 +1798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1858,7 +1824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1884,7 +1850,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.83037598846357996</v>
+        <v>0.83037598846358</v>
       </c>
       <c r="G43" t="s">
         <v>131</v>
@@ -1936,7 +1902,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1950,7 +1916,7 @@
         <v>179363695</v>
       </c>
       <c r="E44">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1962,7 +1928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1988,7 +1954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2002,7 +1968,7 @@
         <v>147454887</v>
       </c>
       <c r="E46">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2014,7 +1980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2028,7 +1994,7 @@
         <v>35772015</v>
       </c>
       <c r="E47">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2040,7 +2006,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2066,7 +2032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2080,7 +2046,7 @@
         <v>20547701</v>
       </c>
       <c r="E49">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2092,7 +2058,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2098,7 @@
         <v>2896073567</v>
       </c>
       <c r="E51">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2144,7 +2110,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2158,7 +2124,7 @@
         <v>911281920</v>
       </c>
       <c r="E52">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2170,7 +2136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2196,7 +2162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2222,7 +2188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2236,7 +2202,7 @@
         <v>143244727</v>
       </c>
       <c r="E55">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2248,7 +2214,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2274,7 +2240,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2288,7 +2254,7 @@
         <v>741723437</v>
       </c>
       <c r="E57">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2300,7 +2266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2326,7 +2292,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2352,7 +2318,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2366,7 +2332,7 @@
         <v>1029918125</v>
       </c>
       <c r="E60">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2378,7 +2344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2392,7 +2358,7 @@
         <v>283571633</v>
       </c>
       <c r="E61">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2406,22 +2372,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2432,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2445,21 +2407,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2483,8 +2442,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>